--- a/pizza.xlsx
+++ b/pizza.xlsx
@@ -444,14 +444,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="H1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="H1" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>